--- a/flows/GRN_fund_flow_data.xlsx
+++ b/flows/GRN_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3617"/>
+  <dimension ref="A1:B3634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36605,6 +36605,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3618">
+      <c r="A3618" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B3618" t="n">
+        <v>-1.1128993</v>
+      </c>
+    </row>
+    <row r="3619">
+      <c r="A3619" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3620">
+      <c r="A3620" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3621">
+      <c r="A3621" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3622">
+      <c r="A3622" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3623">
+      <c r="A3623" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3624">
+      <c r="A3624" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3625">
+      <c r="A3625" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3626">
+      <c r="A3626" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3627">
+      <c r="A3627" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3628">
+      <c r="A3628" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3629">
+      <c r="A3629" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3630">
+      <c r="A3630" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3631">
+      <c r="A3631" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3632">
+      <c r="A3632" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3633">
+      <c r="A3633" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3634">
+      <c r="A3634" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3634" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
